--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2329.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2329.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.953534337166126</v>
+        <v>0.9943628311157227</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>1.299428224563599</v>
       </c>
       <c r="C1">
-        <v>1.180085161833084</v>
+        <v>1.129521012306213</v>
       </c>
       <c r="D1">
-        <v>0.6982130662891862</v>
+        <v>1.166590690612793</v>
       </c>
       <c r="E1">
-        <v>0.546201342139201</v>
+        <v>1.27840518951416</v>
       </c>
     </row>
   </sheetData>
